--- a/data/ProPublicaMUPs.xlsx
+++ b/data/ProPublicaMUPs.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="tau=1" sheetId="1" r:id="rId1"/>
     <sheet name="tau=3" sheetId="2" r:id="rId2"/>
     <sheet name="tau=6" sheetId="3" r:id="rId3"/>
     <sheet name="tau=60" sheetId="4" r:id="rId4"/>
+    <sheet name="10" sheetId="5" r:id="rId5"/>
+    <sheet name="30" sheetId="6" r:id="rId6"/>
+    <sheet name="Stories" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="217">
   <si>
     <t>xx36</t>
   </si>
@@ -431,6 +434,243 @@
   </si>
   <si>
     <t>Other Race, Other Marital Status</t>
+  </si>
+  <si>
+    <t>xx16</t>
+  </si>
+  <si>
+    <t>xx26</t>
+  </si>
+  <si>
+    <t>1xx6</t>
+  </si>
+  <si>
+    <t>x2x6</t>
+  </si>
+  <si>
+    <t>1x32</t>
+  </si>
+  <si>
+    <t>1x34</t>
+  </si>
+  <si>
+    <t>12x4</t>
+  </si>
+  <si>
+    <t>x320</t>
+  </si>
+  <si>
+    <t>x321</t>
+  </si>
+  <si>
+    <t>1x22</t>
+  </si>
+  <si>
+    <t>03x3</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>1x13</t>
+  </si>
+  <si>
+    <t>13x3</t>
+  </si>
+  <si>
+    <t>13x1</t>
+  </si>
+  <si>
+    <t>0x34</t>
+  </si>
+  <si>
+    <t>x313</t>
+  </si>
+  <si>
+    <t>0xx6</t>
+  </si>
+  <si>
+    <t>xx13</t>
+  </si>
+  <si>
+    <t>0xx3</t>
+  </si>
+  <si>
+    <t>x1x6</t>
+  </si>
+  <si>
+    <t>x3x3</t>
+  </si>
+  <si>
+    <t>1xx3</t>
+  </si>
+  <si>
+    <t>x2x3</t>
+  </si>
+  <si>
+    <t>xx06</t>
+  </si>
+  <si>
+    <t>xx03</t>
+  </si>
+  <si>
+    <t>1x31</t>
+  </si>
+  <si>
+    <t>123x</t>
+  </si>
+  <si>
+    <t>131x</t>
+  </si>
+  <si>
+    <t>0x22</t>
+  </si>
+  <si>
+    <t>0x25</t>
+  </si>
+  <si>
+    <t>x125</t>
+  </si>
+  <si>
+    <t>x204</t>
+  </si>
+  <si>
+    <t>x122</t>
+  </si>
+  <si>
+    <t>12x2</t>
+  </si>
+  <si>
+    <t>1x25</t>
+  </si>
+  <si>
+    <t>130x</t>
+  </si>
+  <si>
+    <t>x214</t>
+  </si>
+  <si>
+    <t>101x</t>
+  </si>
+  <si>
+    <t>1x14</t>
+  </si>
+  <si>
+    <t>1x12</t>
+  </si>
+  <si>
+    <t>x225</t>
+  </si>
+  <si>
+    <t>x301</t>
+  </si>
+  <si>
+    <t>13x5</t>
+  </si>
+  <si>
+    <t>x105</t>
+  </si>
+  <si>
+    <t>x102</t>
+  </si>
+  <si>
+    <t>x222</t>
+  </si>
+  <si>
+    <t>13x0</t>
+  </si>
+  <si>
+    <t>11x2</t>
+  </si>
+  <si>
+    <t>100x</t>
+  </si>
+  <si>
+    <t>x305</t>
+  </si>
+  <si>
+    <t>1x05</t>
+  </si>
+  <si>
+    <t>1x04</t>
+  </si>
+  <si>
+    <t>1x02</t>
+  </si>
+  <si>
+    <t>x311</t>
+  </si>
+  <si>
+    <t>x112</t>
+  </si>
+  <si>
+    <t>sex,age,race,M</t>
+  </si>
+  <si>
+    <t>Widowed Female</t>
+  </si>
+  <si>
+    <t>Hispanic Under 20</t>
+  </si>
+  <si>
+    <t>Widowed White</t>
+  </si>
+  <si>
+    <t>Caucasian Significant Other</t>
+  </si>
+  <si>
+    <t>Hispanic Widowed</t>
+  </si>
+  <si>
+    <t>Other races Above 60</t>
+  </si>
+  <si>
+    <t>AA Widowed</t>
+  </si>
+  <si>
+    <t>other races over 60</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>meaning</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>prior counts: 3,4</t>
+  </si>
+  <si>
+    <t>White Missing MS</t>
+  </si>
+  <si>
+    <t>Widowed Other Races</t>
+  </si>
+  <si>
+    <t>Widowed Hispanic</t>
+  </si>
+  <si>
+    <t>9,1</t>
+  </si>
+  <si>
+    <t>under 20 devorced</t>
+  </si>
+  <si>
+    <t>under 20 significant other</t>
+  </si>
+  <si>
+    <t>female unknown MC</t>
+  </si>
+  <si>
+    <t>1,1,1,2,0,0</t>
+  </si>
+  <si>
+    <t>widowed female</t>
   </si>
 </sst>
 </file>
@@ -490,6 +730,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:E1048576" totalsRowShown="0">
+  <autoFilter ref="B1:E1048576"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="pattern"/>
+    <tableColumn id="2" name="meaning"/>
+    <tableColumn id="3" name="count"/>
+    <tableColumn id="4" name="comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -943,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1350,7 @@
   <dimension ref="B2:BI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,4 +1774,1092 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:BN8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS2">
+        <v>125</v>
+      </c>
+      <c r="AT2">
+        <v>204</v>
+      </c>
+      <c r="AU2">
+        <v>1212</v>
+      </c>
+      <c r="AV2">
+        <v>1220</v>
+      </c>
+      <c r="AW2">
+        <v>1205</v>
+      </c>
+      <c r="AX2">
+        <v>232</v>
+      </c>
+      <c r="AY2">
+        <v>1125</v>
+      </c>
+      <c r="AZ2">
+        <v>1202</v>
+      </c>
+      <c r="BA2">
+        <v>1131</v>
+      </c>
+      <c r="BB2">
+        <v>1315</v>
+      </c>
+      <c r="BC2">
+        <v>1310</v>
+      </c>
+      <c r="BD2">
+        <v>1112</v>
+      </c>
+      <c r="BE2">
+        <v>213</v>
+      </c>
+      <c r="BF2">
+        <v>1105</v>
+      </c>
+      <c r="BG2">
+        <v>1225</v>
+      </c>
+      <c r="BH2">
+        <v>1305</v>
+      </c>
+      <c r="BI2">
+        <v>132</v>
+      </c>
+      <c r="BJ2">
+        <v>1221</v>
+      </c>
+      <c r="BK2">
+        <v>1300</v>
+      </c>
+      <c r="BL2">
+        <v>1102</v>
+      </c>
+      <c r="BM2">
+        <v>1231</v>
+      </c>
+      <c r="BN2">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="3" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>1</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>1</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>3</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AF4">
+        <v>3</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+      <c r="AH4">
+        <v>3</v>
+      </c>
+      <c r="AI4">
+        <v>3</v>
+      </c>
+      <c r="AJ4">
+        <v>3</v>
+      </c>
+      <c r="AK4">
+        <v>3</v>
+      </c>
+      <c r="AL4">
+        <v>3</v>
+      </c>
+      <c r="AM4">
+        <v>3</v>
+      </c>
+      <c r="AN4">
+        <v>3</v>
+      </c>
+      <c r="AO4">
+        <v>3</v>
+      </c>
+      <c r="AP4">
+        <v>3</v>
+      </c>
+      <c r="AQ4">
+        <v>3</v>
+      </c>
+      <c r="AR4">
+        <v>3</v>
+      </c>
+      <c r="AS4">
+        <v>4</v>
+      </c>
+      <c r="AT4">
+        <v>4</v>
+      </c>
+      <c r="AU4">
+        <v>4</v>
+      </c>
+      <c r="AV4">
+        <v>4</v>
+      </c>
+      <c r="AW4">
+        <v>4</v>
+      </c>
+      <c r="AX4">
+        <v>4</v>
+      </c>
+      <c r="AY4">
+        <v>4</v>
+      </c>
+      <c r="AZ4">
+        <v>4</v>
+      </c>
+      <c r="BA4">
+        <v>4</v>
+      </c>
+      <c r="BB4">
+        <v>4</v>
+      </c>
+      <c r="BC4">
+        <v>4</v>
+      </c>
+      <c r="BD4">
+        <v>4</v>
+      </c>
+      <c r="BE4">
+        <v>4</v>
+      </c>
+      <c r="BF4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>SUM(B3:BN3)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>65-42</f>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CA3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>178</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT2">
+        <v>202</v>
+      </c>
+      <c r="BU2">
+        <v>205</v>
+      </c>
+      <c r="BV2">
+        <v>315</v>
+      </c>
+      <c r="BW2">
+        <v>1201</v>
+      </c>
+      <c r="BX2">
+        <v>1130</v>
+      </c>
+      <c r="BY2">
+        <v>1111</v>
+      </c>
+      <c r="BZ2">
+        <v>1101</v>
+      </c>
+      <c r="CA2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>195</v>
+      </c>
+      <c r="R3" t="s">
+        <v>199</v>
+      </c>
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>